--- a/veriseti-demo.xlsx
+++ b/veriseti-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Cemsun12\ASUNA\YAZILIM\Cemsun\mami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F211AD61-926E-4707-84EF-1113EAA3E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A53A7-781C-4E1D-823A-AE7C28528476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,25 +123,25 @@
     <t>24.0</t>
   </si>
   <si>
-    <t>23.56</t>
-  </si>
-  <si>
-    <t>25.56</t>
-  </si>
-  <si>
-    <t>22.99</t>
-  </si>
-  <si>
-    <t>15.70</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
     <t>9.90</t>
   </si>
   <si>
     <t>8.2</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>10.0</t>
   </si>
 </sst>
 </file>
@@ -183,22 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +475,7 @@
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,262 +488,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="2">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
